--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_magnétique/Hôpital_magnétique.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_magnétique/Hôpital_magnétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_magn%C3%A9tique</t>
+          <t>Hôpital_magnétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un hôpital magnétique  (nom original en anglais : Magnet. Hospital) est, selon l'American Nurses Credentialing Center (en), un concept d' hôpital qui satisfait à un ensemble de critères « appréciant les pratiques organisationnelles et managériales identifiées pour rendre optimales l’exercice professionnel des soignants ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_magn%C3%A9tique</t>
+          <t>Hôpital_magnétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le concept d’hôpital magnétique (« Magnet Hospital ») a émergé dans les années 1980. L’American Nurses Association (en) (ANA) a créé un label lié à cette appellation. En 1993, le premier hôpital labellisé « Magnet ». En 2018, près de 500 hôpitaux sont labellisés sous ce terme, aux États-Unis (soit environ 8 % des hôpitaux américains) et dans 22 autres pays[1]. Les cliniques de Cleveland et l’hôpital Brigham and Women de Boston sont des établissements américains reconnus comme des « Magnet Hospitals »[2]. Selon Odessa Dariel, professeure en sciences infirmières à l’École des Hautes Études en Santé publique (EHESP), interrogée sur un site universitaire en 2021, ce concept de label « Magnet Hospital » basé sur une accréditation commerciale ne peut pas être transposé dans sa globalité en France, mais elle reconnait qu'il faut « en tirer les points forts pour les adapter au concept français »[3].
-Selon le site infirmiers.com appartenant au Groupe Profession Santé, malgré certaines expérimentations en France, notamment à l'hôpital de Valenciennes (dont le modèle de gouvernance mise sur « l'autonomie managériale des équipes médicales et soignantes »), l'idée même de délégation de santé tel qu'il a été introduit par le concept de « Magnet Hospital » reste inédit en France pour les établissements publics en 2022[4].
-La clinique Pasteur, établissement privé situé à Toulouse, a cependant mis en application le projet ARIQ (Attraction, Rétention, Implication des infirmières et Qualité des soins), s’inspirant du concept des hôpitaux magnétiques avec une mise en place des plans d’actions à compter d’octobre 2010[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concept d’hôpital magnétique (« Magnet Hospital ») a émergé dans les années 1980. L’American Nurses Association (en) (ANA) a créé un label lié à cette appellation. En 1993, le premier hôpital labellisé « Magnet ». En 2018, près de 500 hôpitaux sont labellisés sous ce terme, aux États-Unis (soit environ 8 % des hôpitaux américains) et dans 22 autres pays. Les cliniques de Cleveland et l’hôpital Brigham and Women de Boston sont des établissements américains reconnus comme des « Magnet Hospitals ». Selon Odessa Dariel, professeure en sciences infirmières à l’École des Hautes Études en Santé publique (EHESP), interrogée sur un site universitaire en 2021, ce concept de label « Magnet Hospital » basé sur une accréditation commerciale ne peut pas être transposé dans sa globalité en France, mais elle reconnait qu'il faut « en tirer les points forts pour les adapter au concept français ».
+Selon le site infirmiers.com appartenant au Groupe Profession Santé, malgré certaines expérimentations en France, notamment à l'hôpital de Valenciennes (dont le modèle de gouvernance mise sur « l'autonomie managériale des équipes médicales et soignantes »), l'idée même de délégation de santé tel qu'il a été introduit par le concept de « Magnet Hospital » reste inédit en France pour les établissements publics en 2022.
+La clinique Pasteur, établissement privé situé à Toulouse, a cependant mis en application le projet ARIQ (Attraction, Rétention, Implication des infirmières et Qualité des soins), s’inspirant du concept des hôpitaux magnétiques avec une mise en place des plans d’actions à compter d’octobre 2010.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_magn%C3%A9tique</t>
+          <t>Hôpital_magnétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'infirmière américaine Margaret McClure (1983), l'hôpital magnétique a la « capacité d’attirer et de retenir les personnels soignants ». Pour Vicki A. Lundmark (2008), « son contexte organisationnel rend possible la meilleure performance de chaque professionnel de santé » et enfin pour le québécois Yvon Brunelle, il s'agit tout simplement d'un « hôpital où il fait bon travailler » et où « il fait bon se faire soigner »[6].
-L'expression anglaise « Magnet Hospital », traduit par le terme « hôpital magnétique » en France, exprime la propriété de la matière aimantée et donc par extension la communication d’un fluide « magnétique » à un objet qui est dans le cas présent un  établissement hospitalier. L’expression d’hôpital « aimant » est également utilisée au Québec, signifiant au sens propre la capacité de rétention et d’attractivité et au sens figuré la capacité de fournir du bien-être aux patients et aux personnels de l'établissement désigné sous ce terme[7].
-Selon le chercheur Yvon Brunelle, pour devenir un « hôpital magnétique », un établissement hospistalier doit tendre vers huit conditions essentielles[8]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'infirmière américaine Margaret McClure (1983), l'hôpital magnétique a la « capacité d’attirer et de retenir les personnels soignants ». Pour Vicki A. Lundmark (2008), « son contexte organisationnel rend possible la meilleure performance de chaque professionnel de santé » et enfin pour le québécois Yvon Brunelle, il s'agit tout simplement d'un « hôpital où il fait bon travailler » et où « il fait bon se faire soigner ».
+L'expression anglaise « Magnet Hospital », traduit par le terme « hôpital magnétique » en France, exprime la propriété de la matière aimantée et donc par extension la communication d’un fluide « magnétique » à un objet qui est dans le cas présent un  établissement hospitalier. L’expression d’hôpital « aimant » est également utilisée au Québec, signifiant au sens propre la capacité de rétention et d’attractivité et au sens figuré la capacité de fournir du bien-être aux patients et aux personnels de l'établissement désigné sous ce terme.
+Selon le chercheur Yvon Brunelle, pour devenir un « hôpital magnétique », un établissement hospistalier doit tendre vers huit conditions essentielles:
 L’autonomie professionnelle du personnel infirmier;
 La qualité due support fourni par les appareils administratifs dans les diverses conditions de travail;
 La Une bonne collaboration entre le personnel médical et le personnel infirmier;
